--- a/biology/Médecine/Élisabeth_Tournier-Lasserve/Élisabeth_Tournier-Lasserve.xlsx
+++ b/biology/Médecine/Élisabeth_Tournier-Lasserve/Élisabeth_Tournier-Lasserve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Tournier-Lasserve</t>
+          <t>Élisabeth_Tournier-Lasserve</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisabeth Tournier-Lasserve, née le 7 octobre 1954, est une neurologue, professeure des universités et praticienne hospitalier de génétique. Elle est récipiendaire du prix Recherche 2004 de l'Inserm.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Tournier-Lasserve</t>
+          <t>Élisabeth_Tournier-Lasserve</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisabeth Tournier-Lasserve fait des études de médecine dont un clinicat en neurologie au centre hospitalier universitaire de la Pitié-Salpêtrière. Après avoir obtenu son doctorat en médecine (1984), elle fait un post-doctorat de trois ans aux National Institutes of Health aux Etats-Unis.
-Tournier-Lasserve entre à l’Inserm en 1989 comme chargée de recherche. Puis, elle devient directrice de recherche dans le CJF 90-01, puis dans l’unité Inserm 25 à l'hôpital Necker-Enfants malades. En 1999, elle crée l’unité Inserm « Génétique des maladies vasculaires » (EMI 99-01, puis E0365). Elle est professeure des universités et praticienne hospitalier de génétique à l'hôpital Lariboisière[1].
+Tournier-Lasserve entre à l’Inserm en 1989 comme chargée de recherche. Puis, elle devient directrice de recherche dans le CJF 90-01, puis dans l’unité Inserm 25 à l'hôpital Necker-Enfants malades. En 1999, elle crée l’unité Inserm « Génétique des maladies vasculaires » (EMI 99-01, puis E0365). Elle est professeure des universités et praticienne hospitalier de génétique à l'hôpital Lariboisière.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Tournier-Lasserve</t>
+          <t>Élisabeth_Tournier-Lasserve</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec la neurologue spécialiste des maladies neuro vasculaires Marie-Germaine Bousser, elle participe à la découverte d'une maladie génétique, désignée par l'acronyme CADASIL, responsable d'accidents vasculaires cérébraux. La découverte est publiée en 1993 dans Nature Genetics[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la neurologue spécialiste des maladies neuro vasculaires Marie-Germaine Bousser, elle participe à la découverte d'une maladie génétique, désignée par l'acronyme CADASIL, responsable d'accidents vasculaires cérébraux. La découverte est publiée en 1993 dans Nature Genetics.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Tournier-Lasserve</t>
+          <t>Élisabeth_Tournier-Lasserve</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Recherche de l'Inserm (2004)
-Grand Prix scientifique de la Fondation Lefoulon-Delalande (2016)[3].
-Prix Brain de la Fondation Lundbeck (2019)[4].</t>
+Grand Prix scientifique de la Fondation Lefoulon-Delalande (2016).
+Prix Brain de la Fondation Lundbeck (2019).</t>
         </is>
       </c>
     </row>
